--- a/PvA/Tijdsplanning.xlsx
+++ b/PvA/Tijdsplanning.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>

--- a/PvA/Tijdsplanning.xlsx
+++ b/PvA/Tijdsplanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Wie</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Website af</t>
+  </si>
+  <si>
+    <t>Database aanmaken</t>
   </si>
 </sst>
 </file>
@@ -645,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +670,7 @@
       </c>
       <c r="B1" s="9">
         <f xml:space="preserve"> SUM(C4:C1048576)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -783,13 +786,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
         <v>42758</v>
@@ -800,10 +803,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -814,14 +817,13 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -832,13 +834,14 @@
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
@@ -852,16 +855,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>42765</v>
+        <v>42758</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -869,10 +872,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
@@ -886,27 +889,37 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
       </c>
       <c r="D15" s="6">
-        <v>42772</v>
+        <v>42765</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42772</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -951,7 +964,7 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1147,33 +1160,40 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:E7 E9:E51">
+  <conditionalFormatting sqref="A4:E7 E10:E52">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E4 &gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D51">
+  <conditionalFormatting sqref="A10:D52">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$E9 &gt;0</formula>
+      <formula>$E10 &gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E8">
+  <conditionalFormatting sqref="A8:E9">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$E9 &gt;0</formula>
+      <formula>$E10 &gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PvA/Tijdsplanning.xlsx
+++ b/PvA/Tijdsplanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Wie</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Database aanmaken</t>
+  </si>
+  <si>
+    <t>Website testen</t>
+  </si>
+  <si>
+    <t>30-1-2017 6-2-2017</t>
   </si>
 </sst>
 </file>
@@ -648,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +676,7 @@
       </c>
       <c r="B1" s="9">
         <f xml:space="preserve"> SUM(C4:C1048576)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -909,24 +915,34 @@
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42772</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42772</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -971,7 +987,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -1167,26 +1183,33 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:E7 E10:E52">
+  <conditionalFormatting sqref="A4:E7 E10:E53">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E4 &gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D52">
+  <conditionalFormatting sqref="A10:D53">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$E10 &gt;0</formula>
     </cfRule>

--- a/PvA/Tijdsplanning.xlsx
+++ b/PvA/Tijdsplanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Wie</t>
   </si>
@@ -65,9 +65,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>Ja</t>
-  </si>
-  <si>
     <t>Guide</t>
   </si>
   <si>
@@ -77,30 +74,9 @@
     <t>PvA</t>
   </si>
   <si>
-    <t>Home-pagina website afmaken</t>
-  </si>
-  <si>
-    <t>Nee</t>
-  </si>
-  <si>
-    <t>Auto's pagina website afmaken</t>
-  </si>
-  <si>
-    <t>Over pagina website afmaken</t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
-    <t>Contact pagina website afmaken</t>
-  </si>
-  <si>
-    <t>Inloggen pagina website afmaken</t>
-  </si>
-  <si>
-    <t>Registreren pagina website afmaken</t>
-  </si>
-  <si>
     <t>Groep</t>
   </si>
   <si>
@@ -116,7 +92,25 @@
     <t>Website testen</t>
   </si>
   <si>
-    <t>30-1-2017 6-2-2017</t>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Home-pagina website maken</t>
+  </si>
+  <si>
+    <t>Auto's pagina website maken</t>
+  </si>
+  <si>
+    <t>Over pagina website maken</t>
+  </si>
+  <si>
+    <t>Contact pagina website maken</t>
+  </si>
+  <si>
+    <t>Inloggen pagina website maken</t>
+  </si>
+  <si>
+    <t>Registreren pagina website maken</t>
   </si>
 </sst>
 </file>
@@ -657,7 +651,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,14 +670,14 @@
       </c>
       <c r="B1" s="9">
         <f xml:space="preserve"> SUM(C4:C1048576)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="10">
         <f>MAX(D4:D1048576)</f>
-        <v>42772</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -717,7 +711,7 @@
         <v>42751</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -735,15 +729,15 @@
         <v>42723</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -751,9 +745,7 @@
       <c r="D6" s="6">
         <v>42751</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -761,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -769,16 +761,14 @@
       <c r="D7" s="6">
         <v>42751</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -786,60 +776,52 @@
       <c r="D8" s="6">
         <v>42751</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="6">
-        <v>42758</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42786</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6">
-        <v>42758</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42786</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="6">
-        <v>42758</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42786</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,102 +829,90 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="6">
-        <v>42758</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42786</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>42758</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42786</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" s="6">
-        <v>42765</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42793</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
       </c>
       <c r="D15" s="6">
-        <v>42765</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42793</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42800</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5">
         <v>5</v>
       </c>
       <c r="D17" s="6">
-        <v>42772</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>42800</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>

--- a/PvA/Tijdsplanning.xlsx
+++ b/PvA/Tijdsplanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Wie</t>
   </si>
@@ -74,9 +74,6 @@
     <t>PvA</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>Groep</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>Registreren pagina website maken</t>
+  </si>
+  <si>
+    <t>Steven/Peter</t>
+  </si>
+  <si>
+    <t>Steven/Guido</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -651,20 +654,20 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -680,7 +683,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -711,11 +714,11 @@
         <v>42751</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -729,10 +732,10 @@
         <v>42723</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -748,7 +751,7 @@
       <c r="E6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -763,12 +766,12 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -778,12 +781,12 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -793,12 +796,12 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -808,12 +811,12 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -824,12 +827,12 @@
       <c r="E11" s="5"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
@@ -839,12 +842,12 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
@@ -854,12 +857,12 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
@@ -869,12 +872,12 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
@@ -884,12 +887,12 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>6</v>
@@ -899,12 +902,12 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5">
         <v>5</v>
@@ -914,259 +917,259 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
